--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="199">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,145 +58,145 @@
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>competition</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>community</t>
   </si>
   <si>
     <t>hand</t>
@@ -976,10 +976,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>0.9777777777777777</v>
@@ -1208,7 +1208,7 @@
         <v>108</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>0.967741935483871</v>
@@ -1258,7 +1258,7 @@
         <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <v>0.9615384615384616</v>
@@ -1308,7 +1308,7 @@
         <v>388</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8">
         <v>0.9310344827586207</v>
@@ -1337,28 +1337,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0945945945945946</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="C9">
         <v>14</v>
       </c>
       <c r="D9">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>0.8947368421052632</v>
@@ -1387,28 +1387,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09395973154362416</v>
+        <v>0.01205510907003444</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>422</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>135</v>
+        <v>1721</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>0.8803418803418803</v>
@@ -1437,28 +1437,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01205510907003444</v>
+        <v>0.009607686148919135</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>422</v>
+        <v>633</v>
       </c>
       <c r="E11">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F11">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1721</v>
+        <v>2474</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11">
         <v>0.8740157480314961</v>
@@ -1487,13 +1487,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009607686148919135</v>
+        <v>0.004910557699052964</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>633</v>
+        <v>364</v>
       </c>
       <c r="E12">
         <v>0.96</v>
@@ -1505,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2474</v>
+        <v>2837</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12">
         <v>0.8727272727272727</v>
@@ -1533,32 +1533,8 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.004910557699052964</v>
-      </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>364</v>
-      </c>
-      <c r="E13">
-        <v>0.96</v>
-      </c>
-      <c r="F13">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2837</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13">
         <v>0.8666666666666667</v>
@@ -1584,7 +1560,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14">
         <v>0.8666666666666667</v>
@@ -1610,7 +1586,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15">
         <v>0.8636363636363636</v>
@@ -1636,7 +1612,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16">
         <v>0.8611111111111112</v>
@@ -1662,7 +1638,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17">
         <v>0.8461538461538461</v>
@@ -1688,7 +1664,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18">
         <v>0.8181818181818182</v>
@@ -1714,7 +1690,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19">
         <v>0.8125</v>
@@ -1740,7 +1716,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20">
         <v>0.8</v>
@@ -1766,7 +1742,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21">
         <v>0.7872340425531915</v>
@@ -1792,7 +1768,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22">
         <v>0.7834394904458599</v>
@@ -1818,7 +1794,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23">
         <v>0.7619047619047619</v>
@@ -1844,7 +1820,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24">
         <v>0.75</v>
@@ -1870,7 +1846,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
         <v>0.75</v>
@@ -1896,7 +1872,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
         <v>0.7407407407407407</v>
@@ -1922,7 +1898,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>0.7368421052631579</v>
@@ -1948,7 +1924,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
         <v>0.7222222222222222</v>
@@ -1974,7 +1950,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>0.72</v>
@@ -2000,7 +1976,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>0.7112676056338029</v>
@@ -2026,7 +2002,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>0.6904761904761905</v>
@@ -2052,7 +2028,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32">
         <v>0.6842105263157895</v>
@@ -2078,7 +2054,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>0.6777777777777778</v>
@@ -2104,42 +2080,42 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.6753246753246753</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L34">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.6666666666666666</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2151,12 +2127,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K36">
         <v>0.6521739130434783</v>
@@ -2182,7 +2158,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K37">
         <v>0.6521739130434783</v>
@@ -2208,7 +2184,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38">
         <v>0.6470588235294118</v>
@@ -2234,7 +2210,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39">
         <v>0.6153846153846154</v>
@@ -2260,7 +2236,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K40">
         <v>0.6153846153846154</v>
@@ -2286,7 +2262,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K41">
         <v>0.6031746031746031</v>
@@ -2312,7 +2288,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K42">
         <v>0.5909090909090909</v>
@@ -2338,28 +2314,28 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.588957055214724</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L43">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>134</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2367,13 +2343,13 @@
         <v>60</v>
       </c>
       <c r="K44">
-        <v>0.574468085106383</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L44">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="M44">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2385,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -4808,7 +4784,7 @@
     </row>
     <row r="138" spans="10:17">
       <c r="J138" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K138">
         <v>0.197534868634447</v>
@@ -4964,7 +4940,7 @@
     </row>
     <row r="144" spans="10:17">
       <c r="J144" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K144">
         <v>0.1889726672950047</v>
@@ -5796,7 +5772,7 @@
     </row>
     <row r="176" spans="10:17">
       <c r="J176" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K176">
         <v>0.1098211484154377</v>
